--- a/VyTrackUsers.xlsx
+++ b/VyTrackUsers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\IdeaProjects\VyTrack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6414DF2C-5ED6-4FB2-8CE4-40445E7675E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F3C50B-C41C-4561-B885-F7A810EA1E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10250" yWindow="2500" windowWidth="28740" windowHeight="15350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5800" yWindow="2630" windowWidth="28740" windowHeight="15350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
   <si>
     <t>username</t>
   </si>
@@ -42,97 +42,94 @@
     <t>result</t>
   </si>
   <si>
+    <t>UserUser123</t>
+  </si>
+  <si>
+    <t>user42</t>
+  </si>
+  <si>
+    <t>user43</t>
+  </si>
+  <si>
+    <t>user44</t>
+  </si>
+  <si>
+    <t>storemanager79</t>
+  </si>
+  <si>
+    <t>storemanager80</t>
+  </si>
+  <si>
+    <t>storemanager247</t>
+  </si>
+  <si>
+    <t>salesmanager143</t>
+  </si>
+  <si>
+    <t>salesmanager145</t>
+  </si>
+  <si>
+    <t>salesmanager144</t>
+  </si>
+  <si>
+    <t>Josefa</t>
+  </si>
+  <si>
+    <t>Larson</t>
+  </si>
+  <si>
+    <t>Aletha</t>
+  </si>
+  <si>
+    <t>Alden</t>
+  </si>
+  <si>
+    <t>Alek</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Virginie</t>
+  </si>
+  <si>
+    <t>Ratke</t>
+  </si>
+  <si>
+    <t>Forrest</t>
+  </si>
+  <si>
+    <t>Smitham</t>
+  </si>
+  <si>
+    <t>Runte</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Lacy</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Goyette</t>
+  </si>
+  <si>
+    <t>Tillman</t>
+  </si>
+  <si>
+    <t>Wendell</t>
+  </si>
+  <si>
+    <t>Batz</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>UserUser123</t>
-  </si>
-  <si>
-    <t>user42</t>
-  </si>
-  <si>
-    <t>user43</t>
-  </si>
-  <si>
-    <t>user44</t>
-  </si>
-  <si>
-    <t>storemanager79</t>
-  </si>
-  <si>
-    <t>storemanager80</t>
-  </si>
-  <si>
-    <t>storemanager247</t>
-  </si>
-  <si>
-    <t>salesmanager143</t>
-  </si>
-  <si>
-    <t>salesmanager145</t>
-  </si>
-  <si>
-    <t>salesmanager144</t>
-  </si>
-  <si>
-    <t>Josefa</t>
-  </si>
-  <si>
-    <t>Larson</t>
-  </si>
-  <si>
-    <t>Aletha</t>
-  </si>
-  <si>
-    <t>Alden</t>
-  </si>
-  <si>
-    <t>Alek</t>
-  </si>
-  <si>
-    <t>Rohan</t>
-  </si>
-  <si>
-    <t>Virginie</t>
-  </si>
-  <si>
-    <t>Ratke</t>
-  </si>
-  <si>
-    <t>Forrest</t>
-  </si>
-  <si>
-    <t>Smitham</t>
-  </si>
-  <si>
-    <t>Runte</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Lacy</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Goyette</t>
-  </si>
-  <si>
-    <t>Tillman</t>
-  </si>
-  <si>
-    <t>Wendell</t>
-  </si>
-  <si>
-    <t>Batz</t>
   </si>
 </sst>
 </file>
@@ -454,7 +451,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,155 +481,155 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/VyTrackUsers.xlsx
+++ b/VyTrackUsers.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>username</t>
   </si>
